--- a/Meetings/2020-10-29/2020-10-29_FOSB_metadatamodel_Draft_V1.5.xlsx
+++ b/Meetings/2020-10-29/2020-10-29_FOSB_metadatamodel_Draft_V1.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucp10716\Desktop\FOSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F5E8C1-1269-428A-8B74-8B580D0C1FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFACCF67-A18A-4F3C-9CB8-BADEF67917BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -869,13 +869,13 @@
 </t>
   </si>
   <si>
-    <t>Link project - link DMP</t>
-  </si>
-  <si>
     <t>format: yyyy-mm-dd</t>
   </si>
   <si>
     <t>controlled values list: ISO 639-1 norm</t>
+  </si>
+  <si>
+    <t>Project - link to DMP</t>
   </si>
 </sst>
 </file>
@@ -1737,9 +1737,9 @@
   </sheetPr>
   <dimension ref="A1:Y985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>212</v>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>46</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="33" spans="1:25" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B33" s="58" t="s">
         <v>193</v>
